--- a/medicine/Pharmacie/Bisphosphonate/Bisphosphonate.xlsx
+++ b/medicine/Pharmacie/Bisphosphonate/Bisphosphonate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bisphosphonates[1], ou diphosphonates, sont des molécules indiquées dans le traitement de l’ostéoporose, de la maladie osseuse de Paget et dans certains cas de métastases osseuses ou de myélome multiple.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bisphosphonates, ou diphosphonates, sont des molécules indiquées dans le traitement de l’ostéoporose, de la maladie osseuse de Paget et dans certains cas de métastases osseuses ou de myélome multiple.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières synthèses des bisphosphonates remontent aux années 1800 mais c'est seulement depuis vers 1965 qu'ils sont réellement utilisés dans les traitements. Même l'étidronate, le premier bisphosphonate à être utilisé chez l'homme, a été synthétisé il y a plus de 100 ans[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières synthèses des bisphosphonates remontent aux années 1800 mais c'est seulement depuis vers 1965 qu'ils sont réellement utilisés dans les traitements. Même l'étidronate, le premier bisphosphonate à être utilisé chez l'homme, a été synthétisé il y a plus de 100 ans.
 Les premiers bisphosphonates ont principalement été utilisés comme inhibiteurs de corrosion, mais aussi comme agents complexants dans les industries du textile, des engrais et du pétrole, ainsi que pour de nombreux autres processus industriels.
 La découverte des effets biologiques des bisphosphonates fut publiée dans les études sur les mécanismes de calcification et le rôle de pyrosphophate.
 Lors des premières utilisations cliniques, les bisphosphonates ont été utilisés en tant qu'inhibiteurs de la calcification. Ils étaient également utilisés comme agents d'imagerie osseuse.
@@ -545,9 +559,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les molécules de bisphosphonate simulent, par leurs formes, la molécule de pyrophosphate qui se trouve dans l'os. Cependant, à la différence du pyrophosphate, elles ne sont que très difficilement résorbées par les ostéoclastes, cellules qui habituellement résorbent l'os ancien pendant que les ostéoblastes en fabriquent du nouveau. Les bisphosphonates, contenant un groupe azote (toutes sauf l'étidronate), inhibent l'enzyme farnésyl-pyrophosphate synthase des ostéoclastes, indispensable à leur fonction[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les molécules de bisphosphonate simulent, par leurs formes, la molécule de pyrophosphate qui se trouve dans l'os. Cependant, à la différence du pyrophosphate, elles ne sont que très difficilement résorbées par les ostéoclastes, cellules qui habituellement résorbent l'os ancien pendant que les ostéoblastes en fabriquent du nouveau. Les bisphosphonates, contenant un groupe azote (toutes sauf l'étidronate), inhibent l'enzyme farnésyl-pyrophosphate synthase des ostéoclastes, indispensable à leur fonction.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils diminuent le risque de fractures dues à la déminéralisation osseuse secondaire à la ménopause[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils diminuent le risque de fractures dues à la déminéralisation osseuse secondaire à la ménopause.
 Les bisphosphonates sont le traitement de prédilection pour l’hypercalcémie paranéoplasique (tumorale) car ils inhibent la résorption osseuse pathologique. 
 La résorption osseuse, accélérée dans l'ostéogenèse imparfaite, est ralentie par les bisphosphonates. 
 </t>
@@ -609,9 +627,11 @@
           <t>Les différents bisphosphonates</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étidronate ne contient pas de groupe azote et le niveau de preuve de son efficacité est moindre que pour les autres molécules[5]. Le clodronate et le tiludronate ne sont pas azotés non plus.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étidronate ne contient pas de groupe azote et le niveau de preuve de son efficacité est moindre que pour les autres molécules. Le clodronate et le tiludronate ne sont pas azotés non plus.
 </t>
         </is>
       </c>
@@ -640,11 +660,13 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils diminuent le risque de fractures chez la femme ménopausée. Il n'existe cependant pas d'études comparant l'efficacité des différents bisphosphonates[5].
-Ils diminuent également les calcifications artérielles mais sans effet démontré sur le risque de survenue d'accidents cardio-vasculaires[6].
-Un effet antitumoral a été suspecté[7] mais pas confirmé[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils diminuent le risque de fractures chez la femme ménopausée. Il n'existe cependant pas d'études comparant l'efficacité des différents bisphosphonates.
+Ils diminuent également les calcifications artérielles mais sans effet démontré sur le risque de survenue d'accidents cardio-vasculaires.
+Un effet antitumoral a été suspecté mais pas confirmé.
 </t>
         </is>
       </c>
@@ -673,17 +695,19 @@
           <t>Effets secondaires possibles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Inflammations et lésions oculaires
 Douleurs osseuses
 Irritation gastrique et œsophagienne
 Ulcérations sur les gencives
-Nécrose des os maxillaire ou mandibulaire : assez fréquente lors de la prescription de bisphosphonates à hautes doses dans le cadre des traitements des cancers[9], cette complication est exceptionnelle aux petites doses utilisées dans l'ostéoporose[10].
+Nécrose des os maxillaire ou mandibulaire : assez fréquente lors de la prescription de bisphosphonates à hautes doses dans le cadre des traitements des cancers, cette complication est exceptionnelle aux petites doses utilisées dans l'ostéoporose.
 Ostéopétrose
-Fibrillation auriculaire, notamment avec l'acide zolédronique[11]
-Phlébite de condition, en cas d'injection[12].
-Un effet secondaire paradoxal serait la survenue de fracture spontanée de la diaphyse du fémur[13]. Cela pourrait être dû à une inhibition du remodelage osseux pouvant fragiliser l'os[14]. Ce risque est cependant extrêmement faible et la responsabilité des bisphosphonates reste discutée[15]. Pour l'AFSSAPS, des douleurs, une faiblesse ou une gêne ressenties dans la cuisse ou la hanche pendant le traitement sont des motifs de consultation immédiate[16].
+Fibrillation auriculaire, notamment avec l'acide zolédronique
+Phlébite de condition, en cas d'injection.
+Un effet secondaire paradoxal serait la survenue de fracture spontanée de la diaphyse du fémur. Cela pourrait être dû à une inhibition du remodelage osseux pouvant fragiliser l'os. Ce risque est cependant extrêmement faible et la responsabilité des bisphosphonates reste discutée. Pour l'AFSSAPS, des douleurs, une faiblesse ou une gêne ressenties dans la cuisse ou la hanche pendant le traitement sont des motifs de consultation immédiate.
 Certains effets secondaires peuvent être très graves.
 La biodisponibilité (taux d’absorption) est faible, et fortement perturbée par l'alimentation et un certain nombre d'ions. De ce fait, les bisphosphonates doivent impérativement se prendre à jeun, et le patient ne doit rien absorber pendant 30 à 60 minutes après la prise du bisphosphonate.
 Pour éviter les irritations de l'œsophage, le patient doit rester en position verticale (assis ou debout) jusqu'à ce qu'il ait mangé.
